--- a/doc/Test_Cases.xlsx
+++ b/doc/Test_Cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\indhu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\indhu\RWS\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3066CDE-963B-4B90-9C49-198B3C92EF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376CEC3D-7AC0-424F-9C37-C2D1C107BD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -271,18 +271,9 @@
     <t>Open the server code and check if the function is defined as `web_server()`.</t>
   </si>
   <si>
-    <t>Run the function and pass `port_no` as an argument to see if it accepts it.</t>
-  </si>
-  <si>
-    <t>Start the server with `port_no=5000` and check if it listens for connections.</t>
-  </si>
-  <si>
     <t>Send a request with an invalid JSON structure. Ensure that the request is malformed, such as missing a closing bracket. Observe the response returned by the server.</t>
   </si>
   <si>
-    <t>Construct a JSON request without required fields like `request_id`, `service_name`, or `request_type`. Send the request and observe the server's response.</t>
-  </si>
-  <si>
     <t>Send a valid JSON request and verify that the response includes `status`, `error_reason`, and `data`. Ensure that these fields exist in every response.</t>
   </si>
   <si>
@@ -494,6 +485,15 @@
   </si>
   <si>
     <t>TESTED</t>
+  </si>
+  <si>
+    <t>Run the function and pass port_no and ip adress as an argument by test app to see if it accepts it.</t>
+  </si>
+  <si>
+    <t>Start the server with port_no and configuraion text file and check if it listens for connections.</t>
+  </si>
+  <si>
+    <t>Construct a JSON request without required fields like `request_id`, `service_name`, or `request_type`. Send the request by test app and observe the server's response.</t>
   </si>
 </sst>
 </file>
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -915,13 +915,13 @@
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -935,16 +935,16 @@
         <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -958,16 +958,16 @@
         <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -981,16 +981,16 @@
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1004,16 +1004,16 @@
         <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1027,16 +1027,16 @@
         <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1050,16 +1050,16 @@
         <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1073,16 +1073,16 @@
         <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1096,16 +1096,16 @@
         <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1119,16 +1119,16 @@
         <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1142,16 +1142,16 @@
         <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1165,16 +1165,16 @@
         <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1188,16 +1188,16 @@
         <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1211,16 +1211,16 @@
         <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1234,16 +1234,16 @@
         <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1257,16 +1257,16 @@
         <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1280,16 +1280,16 @@
         <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1303,16 +1303,16 @@
         <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1326,16 +1326,16 @@
         <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1349,16 +1349,16 @@
         <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1372,16 +1372,16 @@
         <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1395,16 +1395,16 @@
         <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1418,16 +1418,16 @@
         <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1441,16 +1441,16 @@
         <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1464,16 +1464,16 @@
         <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F26" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G26" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Test_Cases.xlsx
+++ b/doc/Test_Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\indhu\RWS\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376CEC3D-7AC0-424F-9C37-C2D1C107BD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F23993-A280-4AA1-8531-D1A274D04E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -286,9 +286,6 @@
     <t>Submit a `FUTURE_CALL`, `MAIL`, or `SMS` request. Verify that a new thread is created for handling the request asynchronously.</t>
   </si>
   <si>
-    <t>Load an external function dynamically from a configured external folder. Verify that only functions without `_` prefixes are considered callable.</t>
-  </si>
-  <si>
     <t>Submit a request and confirm that the corresponding thread executes the function. Check whether the thread stores the response correctly upon completion.</t>
   </si>
   <si>
@@ -322,9 +319,6 @@
     <t>Send a request with an invalid function name. Ensure that the response contains `status: ERROR` with `error_reason: FUNCTION_NOT_FOUND`.</t>
   </si>
   <si>
-    <t>Send different types of requests (`INLINE`, `FUTURE_CALL`, `MAIL`, `SMS`) and compare their responses. Ensure all follow the same JSON format.</t>
-  </si>
-  <si>
     <t>Trigger a function error (e.g., division by zero) and verify that the server logs the error while returning `status: ERROR`.</t>
   </si>
   <si>
@@ -343,9 +337,6 @@
     <t>Server should start and listen on the given port.</t>
   </si>
   <si>
-    <t>Response should be {'status': 'INVALID_ARGUMENT', 'error': 'Invalid JSON format'}.</t>
-  </si>
-  <si>
     <t>JSON must have `request_id`, `service_name`, `sub_json`, and `request_type`.</t>
   </si>
   <si>
@@ -494,6 +485,15 @@
   </si>
   <si>
     <t>Construct a JSON request without required fields like `request_id`, `service_name`, or `request_type`. Send the request by test app and observe the server's response.</t>
+  </si>
+  <si>
+    <t>Load an external function dynamically from a configured external folder. Verify that only function in that external will be callable.</t>
+  </si>
+  <si>
+    <t>Send different types of requests (`INLINE`, `FUTURE_CALL`, `MAIL`, `SMS`)  by the testapp and compare their responses. Ensure all follow the same JSON format.</t>
+  </si>
+  <si>
+    <t>Response should be invalid argument  and provide proper json.</t>
   </si>
 </sst>
 </file>
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -915,13 +915,13 @@
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -935,16 +935,16 @@
         <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -958,16 +958,16 @@
         <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -984,13 +984,13 @@
         <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1004,16 +1004,16 @@
         <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1030,13 +1030,13 @@
         <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1053,13 +1053,13 @@
         <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1076,13 +1076,13 @@
         <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1099,13 +1099,13 @@
         <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1119,16 +1119,16 @@
         <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1142,16 +1142,16 @@
         <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1165,16 +1165,16 @@
         <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1188,16 +1188,16 @@
         <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1211,16 +1211,16 @@
         <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1234,16 +1234,16 @@
         <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1257,16 +1257,16 @@
         <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1280,16 +1280,16 @@
         <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1303,16 +1303,16 @@
         <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1326,16 +1326,16 @@
         <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1349,16 +1349,16 @@
         <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1372,16 +1372,16 @@
         <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F22" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1395,16 +1395,16 @@
         <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F23" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1418,16 +1418,16 @@
         <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1441,16 +1441,16 @@
         <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1464,16 +1464,16 @@
         <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F26" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G26" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
